--- a/Results/ANN_CLS (DE, PSO, UMDA, DEDA).xlsx
+++ b/Results/ANN_CLS (DE, PSO, UMDA, DEDA).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="23640" windowHeight="15140"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="24300" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="FIT" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +80,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -125,6 +131,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +415,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -459,169 +469,181 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.69084289510885044</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.6653345369377348E-16</v>
+        <v>0.17589051150294438</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.287492162271411E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.69115219104976988</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.9024087443277053E-4</v>
+        <v>0.18261903733915502</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.0742665794568584E-3</v>
       </c>
       <c r="E3" s="1">
-        <v>6.6442209303995154</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.71208501836815685</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.0872173019573081</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.11256956511896546</v>
+        <v>0.19672708095318012</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.5587585722308112E-2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.14281255639289059</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7.7586963748441052E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>19.183708514117917</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.5871192822616855</v>
+        <v>7.7446591976718604E-2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9.9503937320255566E-3</v>
       </c>
       <c r="C4" s="1">
-        <v>18.96500234787009</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.1398971139993455</v>
-      </c>
-      <c r="E4" s="1">
-        <v>19.566122590971045</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.1110899741868061</v>
+        <v>6.4780502602154122E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.4022930234483063E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3.2302891797148833E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.3217411830543958E-4</v>
       </c>
       <c r="G4" s="1">
-        <v>16.930198321129751</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.2626866284715443</v>
+        <v>5.2610103285256504E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6.6467972788048129E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>25.813953736654931</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5.5337450657728536E-4</v>
+        <v>0.18291432886996056</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.252563112907704E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>24.61651507354134</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.9695715667109301</v>
-      </c>
-      <c r="E5" s="1">
-        <v>114509.13622481935</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2378.1870886150346</v>
+        <v>0.12698555084749935</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.5372893222047051E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.11978503126585915</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.7009507393351605E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>24.301040103186303</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2.1068238163046704</v>
+        <v>6.3499053774268011E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5.2629682482499371E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2070.4779553738981</v>
-      </c>
-      <c r="B6" s="1">
-        <v>215.92192985282543</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1856.5280800438159</v>
-      </c>
-      <c r="D6" s="1">
-        <v>48.38048756334053</v>
+        <v>0.12484407181415916</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.5356015535533726E-2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>7.4485709054018551E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.9531096462595123E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>5317.598518917539</v>
-      </c>
-      <c r="F6" s="1">
-        <v>624.24741383168168</v>
+        <v>9.7103460344185794E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.1114873224671281E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>1965.3404272935022</v>
-      </c>
-      <c r="H6" s="1">
-        <v>109.98122488732216</v>
+        <v>9.9056094101810765E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4.325862616117581E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>129011.41429598676</v>
-      </c>
-      <c r="B7" s="1">
-        <v>70946.826393813899</v>
+        <v>0.16287770944839414</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.3149731232972741E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>78638.398341146225</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6863.1378657088489</v>
+        <v>0.12572632120370483</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.2200859834385046E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>990855.47723597789</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2589.0865319946361</v>
-      </c>
-      <c r="G7" s="1">
-        <v>56109.720250523613</v>
-      </c>
-      <c r="H7" s="1">
-        <v>12671.430750812266</v>
+        <v>0.13089450879293824</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.1758793396871987E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6.6725959008479954E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5.2295320989791609E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>31.942923571636982</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.48089435288360943</v>
+        <v>0.19979641611263949</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.6595856715972992E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>20.010035780395377</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.9289323588392822</v>
-      </c>
-      <c r="E8" s="1">
-        <v>24.533645862794216</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.677798456248111</v>
-      </c>
-      <c r="G8" s="1">
-        <v>20.334296085842574</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5.9024466231053818</v>
-      </c>
+        <v>0.22528759699716888</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.8368482685571139E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.1169079874051487</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.2401047780183971E-2</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="8">
+        <v>0.34474085399999999</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2.3326949999999999E-2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.30593661999999999</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2.2500228000000001E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.27858818499999999</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2.5207588999999999E-2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.25865850499999998</v>
+      </c>
+      <c r="H9" s="9">
+        <v>7.7974989999999994E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>

--- a/Results/ANN_CLS (DE, PSO, UMDA, DEDA).xlsx
+++ b/Results/ANN_CLS (DE, PSO, UMDA, DEDA).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="24300" windowHeight="15540"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="24320" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="FIT" sheetId="1" r:id="rId1"/>
@@ -128,13 +128,13 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,276 +412,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="167" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="10.83203125" customWidth="1"/>
+    <col min="2" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.17589051150294438</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>1.287492162271411E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.18261903733915502</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>7.0742665794568584E-3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.19672708095318012</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>2.5587585722308112E-2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="9">
         <v>0.14281255639289059</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>7.7586963748441052E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1">
         <v>7.7446591976718604E-2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>9.9503937320255566E-3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>6.4780502602154122E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>1.4022930234483063E-2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="9">
         <v>3.2302891797148833E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>9.3217411830543958E-4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>5.2610103285256504E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>6.6467972788048129E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1">
         <v>0.18291432886996056</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>3.252563112907704E-2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.12698555084749935</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>2.5372893222047051E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="9">
         <v>0.11978503126585915</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>3.7009507393351605E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>6.3499053774268011E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>5.2629682482499371E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1">
         <v>0.12484407181415916</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>3.5356015535533726E-2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="D6" s="9">
         <v>7.4485709054018551E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>1.9531096462595123E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>9.7103460344185794E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>2.1114873224671281E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>9.9056094101810765E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>4.325862616117581E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1">
         <v>0.16287770944839414</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>7.3149731232972741E-3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.12572632120370483</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>3.2200859834385046E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.13089450879293824</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>3.1758793396871987E-2</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="9">
         <v>6.6725959008479954E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>5.2295320989791609E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>528</v>
+      </c>
+      <c r="B8" s="1">
         <v>0.19979641611263949</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>3.6595856715972992E-2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.22528759699716888</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>4.8368482685571139E-2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="9">
         <v>0.1169079874051487</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>1.2401047780183971E-2</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="H8" s="1">
+        <v>0.17963742847308686</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3.5698503999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>224</v>
+      </c>
+      <c r="B9" s="7">
         <v>0.34474085399999999</v>
       </c>
-      <c r="B9" s="9">
+      <c r="C9" s="8">
         <v>2.3326949999999999E-2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="7">
         <v>0.30593661999999999</v>
       </c>
-      <c r="D9" s="9">
+      <c r="E9" s="8">
         <v>2.2500228000000001E-2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="7">
         <v>0.27858818499999999</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="8">
         <v>2.5207588999999999E-2</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="10">
         <v>0.25865850499999998</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="8">
         <v>7.7974989999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:A9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>